--- a/BalanceSheet/MAR_bal.xlsx
+++ b/BalanceSheet/MAR_bal.xlsx
@@ -2850,19 +2850,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-189000000.0</v>
+        <v>-166000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-141000000.0</v>
+        <v>-56000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>-63000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-71000000.0</v>
+        <v>57000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-102000000.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>291000000.0</v>
